--- a/cooldata/loc.xlsx
+++ b/cooldata/loc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Biobytes Event\cooldata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9B09645-E857-4605-98A5-4D31195F00B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F87F78-7A26-4B4F-9D54-93C70FF76479}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{87F55CE9-C17C-47A1-B3B9-5F4FC11F507B}"/>
   </bookViews>
@@ -25,12 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>A</t>
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -385,17 +388,20 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
